--- a/Copy of 06-23-24 to 06-29-24 Milwaukee Schedule.xlsx
+++ b/Copy of 06-23-24 to 06-29-24 Milwaukee Schedule.xlsx
@@ -2297,7 +2297,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE</t>
+          <t>5:15 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -3067,21 +3067,9 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3120,15 +3108,19 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
@@ -3165,8 +3157,16 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3256,11 +3256,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3309,7 +3305,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3360,7 +3356,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3405,7 +3401,11 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3518,7 +3518,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>5:15 AM METT COLLEGE (SOUTHWEST)</t>
+          <t>5:15 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>

--- a/Copy of 06-23-24 to 06-29-24 Milwaukee Schedule.xlsx
+++ b/Copy of 06-23-24 to 06-29-24 Milwaukee Schedule.xlsx
@@ -1702,7 +1702,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>6:30 AM SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>6:30 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -2297,7 +2297,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE MEET</t>
+          <t>5:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -3067,9 +3067,21 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3108,19 +3120,15 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
@@ -3157,16 +3165,8 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3256,7 +3256,11 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3305,7 +3309,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3356,7 +3360,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3401,11 +3405,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
